--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>戦闘に敗北した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;を使った</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;のHPが&lt;val2&gt;回復した</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1404,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1427,7 +1433,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A8">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A10">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1477,6 +1483,24 @@
       </c>
       <c r="B8" t="s" s="4">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>&lt;val1&gt;のHPが&lt;val2&gt;回復した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は逃げ出した</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1407,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1433,7 +1436,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A10">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A11">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1501,6 +1504,15 @@
       </c>
       <c r="B10" t="s" s="4">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="message" sheetId="1" r:id="rId4"/>
+    <sheet name="ui" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -51,6 +52,12 @@
   </si>
   <si>
     <t>&lt;val1&gt;は逃げ出した</t>
+  </si>
+  <si>
+    <t>攻撃力</t>
+  </si>
+  <si>
+    <t>防御力</t>
   </si>
 </sst>
 </file>
@@ -112,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,13 +142,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -155,6 +177,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -176,6 +204,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1522,4 +1551,63 @@
     <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="48.2031" style="5" customWidth="1"/>
+    <col min="3" max="256" width="9" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="14.95" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="3">
+        <f t="shared" si="0" ref="A3:A4">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>&lt;val1&gt;は逃げ出した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は&lt;val2&gt;を落とした</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;を手に入れた</t>
+  </si>
+  <si>
+    <t>アイテムが一杯で拾うことができない</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;を捨てて&lt;val2&gt;を手に入れた</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1436,7 +1448,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1465,7 +1477,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A11">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A15">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1542,6 +1554,42 @@
       </c>
       <c r="B11" t="s" s="4">
         <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="4">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -1600,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>防御力</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>いいえ</t>
+  </si>
+  <si>
+    <t>アイテムを捨てて&lt;val1&gt;を手に入れますか？</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1615,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1635,7 +1644,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A4">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A7">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1643,12 +1652,39 @@
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>&lt;val1&gt;を捨てて&lt;val2&gt;を手に入れた</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;をあきらめた</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1457,7 +1460,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1486,7 +1489,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A15">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A16">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1599,6 +1602,15 @@
       </c>
       <c r="B15" t="s" s="4">
         <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -1657,7 +1669,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -1666,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -1675,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -1684,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>&lt;val1&gt;をあきらめた</t>
+  </si>
+  <si>
+    <t>捨てるアイテムを選択してください</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1460,7 +1463,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1489,7 +1492,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A16">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A17">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1611,6 +1614,15 @@
       </c>
       <c r="B16" t="s" s="4">
         <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s" s="4">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1660,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -1669,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -1678,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -1687,7 +1699,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -1696,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>捨てるアイテムを選択してください</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;の経験値を獲得した</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1463,7 +1466,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1492,7 +1495,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A17">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A18">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1623,6 +1626,15 @@
       </c>
       <c r="B17" t="s" s="4">
         <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s" s="4">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1672,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -1681,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -1690,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -1699,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -1708,7 +1720,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>アイテムを捨てて&lt;val1&gt;を手に入れますか？</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1654,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1680,7 +1683,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A7">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A8">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1715,12 +1718,21 @@
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
         <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -21,6 +21,9 @@
     <t>msg</t>
   </si>
   <si>
+    <t>color</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -30,12 +33,21 @@
     <t>&lt;val1&gt;は&lt;val2&gt;ダメージを受けた</t>
   </si>
   <si>
+    <t>yellow</t>
+  </si>
+  <si>
     <t>&lt;val1&gt;に&lt;val2&gt;ダメージを与えた</t>
   </si>
   <si>
+    <t>orange</t>
+  </si>
+  <si>
     <t>&lt;val1&gt;の攻撃</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>&lt;val1&gt;を倒した</t>
   </si>
   <si>
@@ -48,7 +60,13 @@
     <t>&lt;val1&gt;を使った</t>
   </si>
   <si>
+    <t>green</t>
+  </si>
+  <si>
     <t>&lt;val1&gt;のHPが&lt;val2&gt;回復した</t>
+  </si>
+  <si>
+    <t>blue</t>
   </si>
   <si>
     <t>&lt;val1&gt;は逃げ出した</t>
@@ -1469,7 +1487,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1477,7 +1495,8 @@
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="48.2031" style="1" customWidth="1"/>
-    <col min="3" max="256" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.84375" style="1" customWidth="1"/>
+    <col min="4" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customHeight="1">
@@ -1487,13 +1506,19 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -1502,7 +1527,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -1511,7 +1539,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -1520,7 +1551,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -1529,7 +1563,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -1538,7 +1575,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C7" t="s" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -1547,7 +1587,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C8" t="s" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -1556,7 +1599,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C9" t="s" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -1565,7 +1611,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C10" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -1574,7 +1623,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="C11" t="s" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -1583,7 +1635,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="C12" t="s" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -1592,7 +1647,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -1601,6 +1659,9 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s" s="4">
         <v>15</v>
       </c>
     </row>
@@ -1610,7 +1671,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="C15" t="s" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -1619,7 +1683,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C16" t="s" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -1628,7 +1695,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C17" t="s" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -1637,7 +1707,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="C18" t="s" s="4">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1675,10 +1748,10 @@
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -1687,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -1696,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -1705,7 +1778,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -1714,7 +1787,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -1723,7 +1796,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -1732,7 +1805,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>&lt;val1&gt;の経験値を獲得した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;はレベルアップした</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;はHPが全回復した</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1487,7 +1493,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1523,7 +1529,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A18">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A20">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1711,6 +1717,30 @@
       </c>
       <c r="C18" t="s" s="4">
         <v>15</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -1769,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -1778,7 +1808,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -1787,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -1796,7 +1826,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -1805,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -99,6 +99,9 @@
     <t>&lt;val1&gt;はHPが全回復した</t>
   </si>
   <si>
+    <t>&lt;val1&gt;は&lt;val2&gt;を発動した</t>
+  </si>
+  <si>
     <t>攻撃力</t>
   </si>
   <si>
@@ -115,6 +118,15 @@
   </si>
   <si>
     <t>キャンセル</t>
+  </si>
+  <si>
+    <t>攻撃</t>
+  </si>
+  <si>
+    <t>アイテム</t>
+  </si>
+  <si>
+    <t>逃走</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1505,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1529,7 +1541,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A20">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A21">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1741,6 +1753,18 @@
       </c>
       <c r="C20" t="s" s="4">
         <v>17</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s" s="4">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +1781,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1786,11 +1810,11 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A8">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A11">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -1799,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -1808,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -1817,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -1826,16 +1850,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>&lt;val1&gt;は&lt;val2&gt;を発動した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は攻撃をかわした</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;に効果はなかった</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1505,7 +1511,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1541,7 +1547,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A21">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A23">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1764,6 +1770,30 @@
         <v>28</v>
       </c>
       <c r="C21" t="s" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s" s="4">
         <v>15</v>
       </c>
     </row>
@@ -1814,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -1823,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -1832,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -1841,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -1850,7 +1880,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -1859,7 +1889,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -1868,7 +1898,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -1877,7 +1907,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -1886,7 +1916,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -106,6 +106,36 @@
   </si>
   <si>
     <t>&lt;val1&gt;に効果はなかった</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は力尽きた</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は毒になった</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は混乱した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;のスキルを封印した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は麻痺した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は眠った</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は盲目になった</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は呪われた</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は衰弱した</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1511,7 +1541,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1547,7 +1577,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A23">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A32">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1795,6 +1825,114 @@
       </c>
       <c r="C23" t="s" s="4">
         <v>15</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -1853,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -1862,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -1871,7 +2009,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -1880,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -1889,7 +2027,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -1898,7 +2036,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -1907,7 +2045,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -1916,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -114,7 +114,7 @@
     <t>red</t>
   </si>
   <si>
-    <t>&lt;val1&gt;は毒になった</t>
+    <t>&lt;val1&gt;に毒を与えた</t>
   </si>
   <si>
     <t>&lt;val1&gt;は混乱した</t>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>逃走</t>
+  </si>
+  <si>
+    <t>敵全体</t>
   </si>
 </sst>
 </file>
@@ -1949,7 +1952,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1978,7 +1981,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A11">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A12">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2049,12 +2052,21 @@
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
         <v>49</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>&lt;val1&gt;は衰弱した</t>
+  </si>
+  <si>
+    <t>HPが足りない</t>
+  </si>
+  <si>
+    <t>TPが足りない</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1544,7 +1550,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1580,7 +1586,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A32">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A34">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1935,6 +1941,30 @@
         <v>40</v>
       </c>
       <c r="C32" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1985,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -1994,7 +2024,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2003,7 +2033,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2012,7 +2042,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2021,7 +2051,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2030,7 +2060,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2039,7 +2069,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2048,7 +2078,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2057,7 +2087,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2066,7 +2096,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>TPが足りない</t>
+  </si>
+  <si>
+    <t>しかし逃げることはできなかった</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1550,7 +1553,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1586,7 +1589,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A34">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A35">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1965,6 +1968,18 @@
         <v>42</v>
       </c>
       <c r="C34" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s" s="4">
         <v>6</v>
       </c>
     </row>
@@ -2015,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2024,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2033,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2042,7 +2057,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2051,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2060,7 +2075,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2069,7 +2084,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2078,7 +2093,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2087,7 +2102,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2096,7 +2111,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -57,6 +57,9 @@
     <t>戦闘に敗北した</t>
   </si>
   <si>
+    <t>red</t>
+  </si>
+  <si>
     <t>&lt;val1&gt;を使った</t>
   </si>
   <si>
@@ -109,9 +112,6 @@
   </si>
   <si>
     <t>&lt;val1&gt;は力尽きた</t>
-  </si>
-  <si>
-    <t>red</t>
   </si>
   <si>
     <t>&lt;val1&gt;に毒を与えた</t>
@@ -1656,7 +1656,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -1665,10 +1665,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -1677,10 +1677,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -1689,7 +1689,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s" s="4">
         <v>10</v>
@@ -1701,7 +1701,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s" s="4">
         <v>8</v>
@@ -1713,10 +1713,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -1725,10 +1725,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -1737,10 +1737,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -1749,10 +1749,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -1761,7 +1761,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s" s="4">
         <v>10</v>
@@ -1773,10 +1773,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s" s="4">
         <v>8</v>
@@ -1797,10 +1797,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -1809,10 +1809,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -1821,10 +1821,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -1833,10 +1833,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -1845,10 +1845,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="4">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>しかし逃げることはできなかった</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は眠っている</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;のスキルは封印されている</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は痺れて動けない</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1553,7 +1562,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1589,7 +1598,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A35">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A38">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1981,6 +1990,42 @@
       </c>
       <c r="C35" t="s" s="4">
         <v>6</v>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2039,7 +2084,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2048,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2057,7 +2102,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2066,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2075,7 +2120,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2084,7 +2129,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2093,7 +2138,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2102,7 +2147,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2111,7 +2156,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>敵全体</t>
+  </si>
+  <si>
+    <t>メニュー</t>
   </si>
 </sst>
 </file>
@@ -2042,7 +2045,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2071,7 +2074,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A12">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A13">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2151,12 +2154,21 @@
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
         <v>56</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="4">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>&lt;val1&gt;は痺れて動けない</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;の攻撃力がアップした</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;の防御力力がアップした</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;の素早さがアップした</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;の攻撃力がダウンした</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;の防御力力がダウンした</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;の素早さがダウンした</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1565,7 +1583,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1601,7 +1619,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A38">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A44">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2029,6 +2047,78 @@
       </c>
       <c r="C38" t="s" s="4">
         <v>10</v>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2087,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2096,7 +2186,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2105,7 +2195,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2114,7 +2204,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2123,7 +2213,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2132,7 +2222,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2141,7 +2231,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2150,7 +2240,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2159,7 +2249,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2168,7 +2258,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>メニュー</t>
+  </si>
+  <si>
+    <t>次のフロア</t>
   </si>
 </sst>
 </file>
@@ -2135,7 +2138,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2164,7 +2167,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A13">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A14">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2253,12 +2256,21 @@
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
         <v>63</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="4">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>次のフロア</t>
+  </si>
+  <si>
+    <t>ショップ</t>
   </si>
 </sst>
 </file>
@@ -217,11 +220,11 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Verdana"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
       <sz val="12"/>
@@ -242,11 +245,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W6"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -269,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -292,21 +290,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -320,19 +303,19 @@
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -354,7 +337,6 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -413,53 +395,8 @@
         <a:cs typeface="ヒラギノ角ゴ ProN W3"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Blank">
       <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="129999"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -528,27 +465,6 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="104999"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
@@ -578,83 +494,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -725,12 +566,13 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1019,6 +861,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1300,12 +1143,13 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1590,12 +1434,12 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.2031" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.84375" style="1" customWidth="1"/>
-    <col min="4" max="256" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.2656" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.11719" style="1" customWidth="1"/>
+    <col min="4" max="256" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customHeight="1">
@@ -1621,7 +1465,7 @@
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <f t="shared" si="0" ref="A3:A44">ROW()-2</f>
         <v>1</v>
       </c>
@@ -1633,7 +1477,7 @@
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1645,7 +1489,7 @@
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1657,7 +1501,7 @@
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1669,7 +1513,7 @@
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1681,7 +1525,7 @@
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1693,7 +1537,7 @@
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1705,7 +1549,7 @@
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1717,7 +1561,7 @@
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1729,7 +1573,7 @@
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1741,7 +1585,7 @@
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1753,7 +1597,7 @@
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1765,7 +1609,7 @@
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1777,7 +1621,7 @@
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1789,7 +1633,7 @@
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1801,7 +1645,7 @@
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1813,7 +1657,7 @@
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1825,7 +1669,7 @@
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="3">
+      <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1837,7 +1681,7 @@
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1849,7 +1693,7 @@
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
-      <c r="A22" s="3">
+      <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1861,7 +1705,7 @@
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
-      <c r="A23" s="3">
+      <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1873,7 +1717,7 @@
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="3">
+      <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -1885,7 +1729,7 @@
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
-      <c r="A25" s="3">
+      <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -1897,7 +1741,7 @@
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="3">
+      <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -1909,7 +1753,7 @@
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="3">
+      <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -1921,7 +1765,7 @@
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="3">
+      <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -1933,7 +1777,7 @@
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
-      <c r="A29" s="3">
+      <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -1945,7 +1789,7 @@
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="3">
+      <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -1957,7 +1801,7 @@
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
-      <c r="A31" s="3">
+      <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -1969,7 +1813,7 @@
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
-      <c r="A32" s="3">
+      <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1981,7 +1825,7 @@
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
-      <c r="A33" s="3">
+      <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -1993,7 +1837,7 @@
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
-      <c r="A34" s="3">
+      <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -2005,7 +1849,7 @@
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
-      <c r="A35" s="3">
+      <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -2017,7 +1861,7 @@
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
-      <c r="A36" s="3">
+      <c r="A36" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -2029,7 +1873,7 @@
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
-      <c r="A37" s="3">
+      <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -2041,7 +1885,7 @@
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
-      <c r="A38" s="3">
+      <c r="A38" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -2053,7 +1897,7 @@
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
-      <c r="A39" s="3">
+      <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -2065,7 +1909,7 @@
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
-      <c r="A40" s="3">
+      <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -2077,7 +1921,7 @@
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
-      <c r="A41" s="3">
+      <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -2089,7 +1933,7 @@
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
-      <c r="A42" s="3">
+      <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -2101,7 +1945,7 @@
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
-      <c r="A43" s="3">
+      <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -2113,7 +1957,7 @@
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
-      <c r="A44" s="3">
+      <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -2125,7 +1969,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
@@ -2138,15 +1982,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="48.2031" style="5" customWidth="1"/>
-    <col min="3" max="256" width="9" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="64.2656" style="6" customWidth="1"/>
+    <col min="3" max="256" width="12" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customHeight="1">
@@ -2166,8 +2010,8 @@
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="3">
-        <f t="shared" si="0" ref="A3:A14">ROW()-2</f>
+      <c r="A3" s="5">
+        <f t="shared" si="0" ref="A3:A15">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2175,7 +2019,7 @@
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2184,7 +2028,7 @@
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2193,7 +2037,7 @@
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2202,7 +2046,7 @@
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2211,7 +2055,7 @@
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2220,7 +2064,7 @@
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2229,7 +2073,7 @@
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2238,7 +2082,7 @@
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2247,7 +2091,7 @@
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2256,7 +2100,7 @@
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -2265,7 +2109,7 @@
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2273,8 +2117,17 @@
         <v>64</v>
       </c>
     </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="4">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>ショップ</t>
+  </si>
+  <si>
+    <t>購入</t>
+  </si>
+  <si>
+    <t>売却</t>
   </si>
 </sst>
 </file>
@@ -1982,7 +1988,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2011,7 +2017,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A15">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A17">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2124,6 +2130,24 @@
       </c>
       <c r="B15" t="s" s="4">
         <v>65</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s" s="4">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -216,7 +216,10 @@
     <t>購入</t>
   </si>
   <si>
-    <t>売却</t>
+    <t>アイテム売却</t>
+  </si>
+  <si>
+    <t>スキル売却</t>
   </si>
 </sst>
 </file>
@@ -1988,7 +1991,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2017,7 +2020,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A17">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A18">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2148,6 +2151,15 @@
       </c>
       <c r="B17" t="s" s="4">
         <v>67</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s" s="4">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>&lt;val1&gt;の素早さがダウンした</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;を&lt;val2&gt;Gで購入した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;を&lt;val2&gt;Gで売却した</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1439,7 +1445,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1475,7 +1481,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A44">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A46">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -1975,6 +1981,30 @@
       </c>
       <c r="C44" t="s" s="4">
         <v>6</v>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1">
+      <c r="A45" s="5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1">
+      <c r="A46" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s" s="4">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2024,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2033,7 +2063,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2042,7 +2072,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2051,7 +2081,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2060,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2069,7 +2099,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2078,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2087,7 +2117,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2096,7 +2126,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2105,7 +2135,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2114,7 +2144,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2123,7 +2153,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2132,7 +2162,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2141,7 +2171,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2150,7 +2180,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2159,7 +2189,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>スキル売却</t>
+  </si>
+  <si>
+    <t>スキル確認</t>
   </si>
 </sst>
 </file>
@@ -2021,7 +2024,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2050,7 +2053,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A18">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A19">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2190,6 +2193,15 @@
       </c>
       <c r="B18" t="s" s="4">
         <v>70</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s" s="4">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -180,6 +180,9 @@
     <t>&lt;val1&gt;を&lt;val2&gt;Gで売却した</t>
   </si>
   <si>
+    <t>&lt;val1&gt;を捨てた</t>
+  </si>
+  <si>
     <t>攻撃力</t>
   </si>
   <si>
@@ -229,6 +232,9 @@
   </si>
   <si>
     <t>スキル確認</t>
+  </si>
+  <si>
+    <t>アイテム捨てる</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1454,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1484,7 +1490,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A46">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A47">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2008,6 +2014,18 @@
       </c>
       <c r="C46" t="s" s="4">
         <v>8</v>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1">
+      <c r="A47" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s" s="4">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2024,7 +2042,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2053,11 +2071,11 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A19">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A20">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2066,7 +2084,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2075,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2084,7 +2102,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2093,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2102,7 +2120,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2111,7 +2129,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2120,7 +2138,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2129,7 +2147,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2138,7 +2156,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2147,7 +2165,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2156,7 +2174,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2165,7 +2183,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2174,7 +2192,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2183,7 +2201,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2192,7 +2210,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2201,7 +2219,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s" s="4">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>アイテム捨てる</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;を捨てます。よろしいですか？</t>
   </si>
 </sst>
 </file>
@@ -2042,7 +2045,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2071,7 +2074,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A20">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A21">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2229,6 +2232,15 @@
       </c>
       <c r="B20" t="s" s="4">
         <v>73</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s" s="4">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -181,6 +181,21 @@
   </si>
   <si>
     <t>&lt;val1&gt;を捨てた</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;の最大HPが&lt;val2&gt;上昇した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;の力が&lt;val2&gt;上昇した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;の体力が&lt;val2&gt;上昇した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;の素早さが&lt;val2&gt;上昇した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;の魔力が&lt;val2&gt;上昇した</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1457,7 +1472,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1493,7 +1508,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A47">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A52">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2028,6 +2043,66 @@
         <v>55</v>
       </c>
       <c r="C47" t="s" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1">
+      <c r="A48" s="5">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1">
+      <c r="A49" s="5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1">
+      <c r="A50" s="5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1">
+      <c r="A51" s="5">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1">
+      <c r="A52" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2078,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2087,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2096,7 +2171,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2105,7 +2180,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2114,7 +2189,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2123,7 +2198,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2132,7 +2207,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2141,7 +2216,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2150,7 +2225,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2159,7 +2234,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2168,7 +2243,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2177,7 +2252,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2186,7 +2261,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2195,7 +2270,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2204,7 +2279,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2213,7 +2288,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2222,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2231,7 +2306,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2240,7 +2315,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>&lt;val1&gt;を捨てます。よろしいですか？</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>素早さ</t>
+  </si>
+  <si>
+    <t>魔力</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2132,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2149,7 +2161,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A21">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A25">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2316,6 +2328,42 @@
       </c>
       <c r="B21" t="s" s="4">
         <v>79</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" t="s" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s" s="4">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -265,6 +265,15 @@
   </si>
   <si>
     <t>魔力</t>
+  </si>
+  <si>
+    <t>回復</t>
+  </si>
+  <si>
+    <t>10％回復</t>
+  </si>
+  <si>
+    <t>全回復</t>
   </si>
 </sst>
 </file>
@@ -2132,7 +2141,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2161,7 +2170,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A25">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A28">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2364,6 +2373,33 @@
       </c>
       <c r="B25" t="s" s="4">
         <v>83</v>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s" s="4">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -270,10 +270,10 @@
     <t>回復</t>
   </si>
   <si>
-    <t>10％回復</t>
-  </si>
-  <si>
-    <t>全回復</t>
+    <t>HP10％回復</t>
+  </si>
+  <si>
+    <t>HP全回復</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1493,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A52">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A53">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2125,6 +2125,18 @@
       </c>
       <c r="C52" t="s" s="4">
         <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1">
+      <c r="A53" s="5">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s" s="4">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>HP全回復</t>
+  </si>
+  <si>
+    <t>HPを10%回復します</t>
+  </si>
+  <si>
+    <t>HPを最大値まで回復します</t>
   </si>
 </sst>
 </file>
@@ -2153,7 +2159,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2182,7 +2188,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A28">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A30">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2412,6 +2418,24 @@
       </c>
       <c r="B28" t="s" s="4">
         <v>86</v>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1">
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1">
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s" s="4">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>&lt;val1&gt;の魔力が&lt;val2&gt;上昇した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;のMPが&lt;val2&gt;回復した</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -2139,7 +2142,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s" s="4">
         <v>18</v>
@@ -2192,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2201,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2210,7 +2213,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2219,7 +2222,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2228,7 +2231,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2237,7 +2240,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2246,7 +2249,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2255,7 +2258,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2264,7 +2267,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2273,7 +2276,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2282,7 +2285,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2291,7 +2294,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2300,7 +2303,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2309,7 +2312,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2318,7 +2321,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2327,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2336,7 +2339,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2345,7 +2348,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2354,7 +2357,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2363,7 +2366,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2372,7 +2375,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2381,7 +2384,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2390,7 +2393,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2399,7 +2402,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2408,7 +2411,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2417,7 +2420,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2426,7 +2429,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2435,7 +2438,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -198,7 +198,7 @@
     <t>&lt;val1&gt;の魔力が&lt;val2&gt;上昇した</t>
   </si>
   <si>
-    <t>&lt;val1&gt;のMPが&lt;val2&gt;回復した</t>
+    <t>&lt;val1&gt;のTPが&lt;val2&gt;回復した</t>
   </si>
   <si>
     <t>攻撃力</t>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -54,7 +54,7 @@
     <t>戦闘に勝利した</t>
   </si>
   <si>
-    <t>戦闘に敗北した</t>
+    <t>&lt;val1&gt;は力尽きた……</t>
   </si>
   <si>
     <t>red</t>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>HPを最大値まで回復します</t>
+  </si>
+  <si>
+    <t>食糧</t>
+  </si>
+  <si>
+    <t>食糧がなくなるとダメージを受けます</t>
   </si>
 </sst>
 </file>
@@ -2162,7 +2168,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2191,7 +2197,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A30">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A32">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2439,6 +2445,24 @@
       </c>
       <c r="B30" t="s" s="4">
         <v>89</v>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1">
+      <c r="A31" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1">
+      <c r="A32" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" t="s" s="4">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>食糧がなくなるとダメージを受けます</t>
+  </si>
+  <si>
+    <t>モンスターに遭遇した！</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;を見つけた</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;G拾った</t>
   </si>
 </sst>
 </file>
@@ -2168,7 +2177,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2197,7 +2206,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A32">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A35">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2463,6 +2472,33 @@
       </c>
       <c r="B32" t="s" s="4">
         <v>91</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" t="s" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" t="s" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" t="s" s="4">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>&lt;val1&gt;のTPが&lt;val2&gt;回復した</t>
+  </si>
+  <si>
+    <t>スキル所持数が最大なので購入できません</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1517,7 +1520,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1553,7 +1556,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A53">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A54">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2161,6 +2164,18 @@
       </c>
       <c r="C53" t="s" s="4">
         <v>18</v>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1">
+      <c r="A54" s="5">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" t="s" s="4">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2219,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2228,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2237,7 +2252,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2246,7 +2261,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2255,7 +2270,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2264,7 +2279,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2273,7 +2288,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2282,7 +2297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2291,7 +2306,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2300,7 +2315,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2309,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2318,7 +2333,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2327,7 +2342,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2336,7 +2351,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2345,7 +2360,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2354,7 +2369,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2363,7 +2378,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2372,7 +2387,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2381,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2390,7 +2405,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2399,7 +2414,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2408,7 +2423,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2417,7 +2432,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2426,7 +2441,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2435,7 +2450,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2444,7 +2459,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2453,7 +2468,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2462,7 +2477,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2471,7 +2486,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2480,7 +2495,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2489,7 +2504,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2498,7 +2513,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>id</t>
   </si>
@@ -301,6 +301,15 @@
   </si>
   <si>
     <t>&lt;val1&gt;G拾った</t>
+  </si>
+  <si>
+    <t>地形効果：</t>
+  </si>
+  <si>
+    <t>ダメージ</t>
+  </si>
+  <si>
+    <t>毒</t>
   </si>
 </sst>
 </file>
@@ -2192,7 +2201,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2221,7 +2230,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A35">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A38">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2514,6 +2523,33 @@
       </c>
       <c r="B35" t="s" s="4">
         <v>95</v>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1">
+      <c r="A37" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" t="s" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" t="s" s="4">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>id</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>スキル所持数が最大なので購入できません</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は様子を見ている</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1529,7 +1532,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1565,7 +1568,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A54">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A55">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2185,6 +2188,18 @@
       </c>
       <c r="C54" t="s" s="4">
         <v>6</v>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1">
+      <c r="A55" s="5">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2243,7 +2258,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2252,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2261,7 +2276,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2270,7 +2285,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2279,7 +2294,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2288,7 +2303,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2297,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2306,7 +2321,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2315,7 +2330,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2324,7 +2339,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2333,7 +2348,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2342,7 +2357,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2351,7 +2366,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2360,7 +2375,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2369,7 +2384,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2378,7 +2393,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2387,7 +2402,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2396,7 +2411,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2405,7 +2420,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2414,7 +2429,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2423,7 +2438,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2432,7 +2447,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2441,7 +2456,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2450,7 +2465,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2459,7 +2474,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2468,7 +2483,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2477,7 +2492,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2486,7 +2501,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2495,7 +2510,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2504,7 +2519,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2513,7 +2528,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2522,7 +2537,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2531,7 +2546,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2540,7 +2555,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2549,7 +2564,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
